--- a/biology/Zoologie/Clypeasteridae/Clypeasteridae.xlsx
+++ b/biology/Zoologie/Clypeasteridae/Clypeasteridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clypeasteridae sont une famille d'oursins de l'ordre des Clypéastéroïdes (Clypeasteroida).
 </t>
@@ -511,12 +523,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clypéastéroïdes sont des oursins plats appelés en anglais sand dollar (dollars des sables) du fait de leur ressemblance avec une pièce de 1 dollar canadien (valable surtout pour certaines espèces). On les appelle aussi parfois « oursins-biscuits » (sea biscuits).
-Ce sont des oursins irréguliers, qui ont perdu leur forme ronde et leur symétrie radiaire caractéristique au cours de l'évolution : la forme est devenue plate et ovoïdale, allongé dans le sens antéro-postérieur, et l'anus a migré vers un côté du corps pour former un « arrière », opposé à un « avant ». Le disque apical a cependant conservé les 5 gonopores, et la bouche, souvent enfoncée, est entourée d'infundibulum[1].
-Leur test (coquille) est couvert de minuscules radioles (piquants) semblables à des poils. À l'intérieur, la solidité de l'ensemble est assurée par des cloisons et piliers (qui empêchent l'écrasement de l'animal)[2].
-Cette famille semble être apparue à la fin de l'Éocène ; ils ont depuis colonisé toutes les principales mers du monde[1].
+Ce sont des oursins irréguliers, qui ont perdu leur forme ronde et leur symétrie radiaire caractéristique au cours de l'évolution : la forme est devenue plate et ovoïdale, allongé dans le sens antéro-postérieur, et l'anus a migré vers un côté du corps pour former un « arrière », opposé à un « avant ». Le disque apical a cependant conservé les 5 gonopores, et la bouche, souvent enfoncée, est entourée d'infundibulum.
+Leur test (coquille) est couvert de minuscules radioles (piquants) semblables à des poils. À l'intérieur, la solidité de l'ensemble est assurée par des cloisons et piliers (qui empêchent l'écrasement de l'animal).
+Cette famille semble être apparue à la fin de l'Éocène ; ils ont depuis colonisé toutes les principales mers du monde.
 			Test de Clypeaster reticulatus (deux faces)
 			Arachnoides placenta mort, laissant échapper son système masticateur (Lanterne d'Aristote).
 </t>
@@ -547,9 +561,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 octobre 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 octobre 2013) :
 Sous-famille Ammotrophinae (Durham, 1955)
 genre Ammotrophus (H.L. Clark, 1928) -- 3 espèces
 genre Monostychia (Laube, 1869) †
@@ -565,7 +581,7 @@
 			Clypeaster reticulatus
 			Test de Clypeaster rosaceus aux Bahamas.
 			Test de Clypeaster japonicus
-ITIS      (16 octobre 2013)[4] et NCBI  (16 octobre 2013)[5] ne reconnaissent que le genre Clypeaster (Lamarck, 1801).
+ITIS      (16 octobre 2013) et NCBI  (16 octobre 2013) ne reconnaissent que le genre Clypeaster (Lamarck, 1801).
 </t>
         </is>
       </c>
